--- a/biology/Biochimie/UDP-glucose_4-épimérase/UDP-glucose_4-épimérase.xlsx
+++ b/biology/Biochimie/UDP-glucose_4-épimérase/UDP-glucose_4-épimérase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UDP-glucose_4-%C3%A9pim%C3%A9rase</t>
+          <t>UDP-glucose_4-épimérase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'UDP-glucose 4-épimérase, ou UDP-galactose 4-épimérase (GALE), est une épimérase homodimérique présente chez les bactéries, les mycètes, les plantes et les mammifères, qui catalyse la réaction :
 UDP-glucose  
         ⇌
     {\displaystyle \rightleftharpoons }
   UDP-galactose.
-Cette enzyme intervient à l'étape finale de la voie de Leloir[2],[3] de dégradation du galactose. Elle requiert du NAD+ comme cofacteur[4]. Chez l'homme et chez certaines bactéries, cette enzyme est également capable d'agir sur l'UDP-N-acétylglucosamine pour former de l'UDP-N-acétylgalactosamine en présence de NAD+, étape initiale de la biosynthèse de glycoprotéines et de glycolipides[5].
+Cette enzyme intervient à l'étape finale de la voie de Leloir, de dégradation du galactose. Elle requiert du NAD+ comme cofacteur. Chez l'homme et chez certaines bactéries, cette enzyme est également capable d'agir sur l'UDP-N-acétylglucosamine pour former de l'UDP-N-acétylgalactosamine en présence de NAD+, étape initiale de la biosynthèse de glycoprotéines et de glycolipides.
 </t>
         </is>
       </c>
